--- a/data/expected_death_inla70_2020.xlsx
+++ b/data/expected_death_inla70_2020.xlsx
@@ -818,13 +818,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>80.7731762551293</v>
+        <v>81.1432032404682</v>
       </c>
       <c r="D2" t="n">
-        <v>72.4333557932732</v>
+        <v>72.2675917168807</v>
       </c>
       <c r="E2" t="n">
-        <v>90.2386888396328</v>
+        <v>90.5397965017562</v>
       </c>
       <c r="F2" t="n">
         <v>2020</v>
@@ -856,13 +856,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>162.462152057554</v>
+        <v>162.450792918722</v>
       </c>
       <c r="D3" t="n">
-        <v>149.025888251189</v>
+        <v>148.591816216128</v>
       </c>
       <c r="E3" t="n">
-        <v>176.26770576387</v>
+        <v>176.988149189593</v>
       </c>
       <c r="F3" t="n">
         <v>2020</v>
@@ -894,13 +894,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>163.619710996043</v>
+        <v>163.939818692107</v>
       </c>
       <c r="D4" t="n">
-        <v>149.800333682631</v>
+        <v>152.115604201059</v>
       </c>
       <c r="E4" t="n">
-        <v>177.669275111228</v>
+        <v>178.231680387729</v>
       </c>
       <c r="F4" t="n">
         <v>2020</v>
@@ -932,13 +932,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>2728.83153194481</v>
+        <v>2727.33601971184</v>
       </c>
       <c r="D5" t="n">
-        <v>2631.57377098149</v>
+        <v>2621.79576992821</v>
       </c>
       <c r="E5" t="n">
-        <v>2828.58237062589</v>
+        <v>2841.56264305184</v>
       </c>
       <c r="F5" t="n">
         <v>2020</v>
@@ -970,13 +970,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>418.91262532924</v>
+        <v>420.230338229626</v>
       </c>
       <c r="D6" t="n">
-        <v>393.261490315204</v>
+        <v>395.134254567519</v>
       </c>
       <c r="E6" t="n">
-        <v>445.815656050188</v>
+        <v>446.67545708245</v>
       </c>
       <c r="F6" t="n">
         <v>2020</v>
@@ -1008,13 +1008,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>1733.0422554331</v>
+        <v>1733.70876791752</v>
       </c>
       <c r="D7" t="n">
-        <v>1666.54622456964</v>
+        <v>1666.58061245575</v>
       </c>
       <c r="E7" t="n">
-        <v>1796.01868793289</v>
+        <v>1809.50407267447</v>
       </c>
       <c r="F7" t="n">
         <v>2020</v>
@@ -1046,13 +1046,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>828.853182271602</v>
+        <v>829.396916998059</v>
       </c>
       <c r="D8" t="n">
-        <v>792.74232906043</v>
+        <v>787.363377090269</v>
       </c>
       <c r="E8" t="n">
-        <v>866.862980102877</v>
+        <v>872.526930423405</v>
       </c>
       <c r="F8" t="n">
         <v>2020</v>
@@ -1084,13 +1084,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>142.195113811937</v>
+        <v>141.365001693432</v>
       </c>
       <c r="D9" t="n">
-        <v>130.512780868067</v>
+        <v>129.064788783212</v>
       </c>
       <c r="E9" t="n">
-        <v>156.116265677866</v>
+        <v>154.498852114517</v>
       </c>
       <c r="F9" t="n">
         <v>2020</v>
@@ -1122,13 +1122,13 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>232.747102451097</v>
+        <v>233.01979637758</v>
       </c>
       <c r="D10" t="n">
-        <v>214.013207712634</v>
+        <v>216.195257465492</v>
       </c>
       <c r="E10" t="n">
-        <v>250.756681439928</v>
+        <v>251.599215723877</v>
       </c>
       <c r="F10" t="n">
         <v>2020</v>
@@ -1160,13 +1160,13 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>166.98539810888</v>
+        <v>167.371926290991</v>
       </c>
       <c r="D11" t="n">
-        <v>153.086627243049</v>
+        <v>153.46563924667</v>
       </c>
       <c r="E11" t="n">
-        <v>181.009254513991</v>
+        <v>182.833991442912</v>
       </c>
       <c r="F11" t="n">
         <v>2020</v>
@@ -1198,13 +1198,13 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>339.562428216984</v>
+        <v>339.26569787894</v>
       </c>
       <c r="D12" t="n">
-        <v>317.53259666413</v>
+        <v>318.096053707593</v>
       </c>
       <c r="E12" t="n">
-        <v>362.013869923716</v>
+        <v>362.943859824787</v>
       </c>
       <c r="F12" t="n">
         <v>2020</v>
@@ -1236,13 +1236,13 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>405.741558927084</v>
+        <v>406.877345662276</v>
       </c>
       <c r="D13" t="n">
-        <v>382.57572981159</v>
+        <v>382.172015148124</v>
       </c>
       <c r="E13" t="n">
-        <v>432.16607009763</v>
+        <v>431.26657769374</v>
       </c>
       <c r="F13" t="n">
         <v>2020</v>
@@ -1274,13 +1274,13 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>153.057939294161</v>
+        <v>153.569974266649</v>
       </c>
       <c r="D14" t="n">
-        <v>140.868236847284</v>
+        <v>140.999745291423</v>
       </c>
       <c r="E14" t="n">
-        <v>166.292264163303</v>
+        <v>167.857200542046</v>
       </c>
       <c r="F14" t="n">
         <v>2020</v>
@@ -1312,13 +1312,13 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>52.5867226870574</v>
+        <v>52.6240141454411</v>
       </c>
       <c r="D15" t="n">
-        <v>46.4681893611347</v>
+        <v>46.9300679475672</v>
       </c>
       <c r="E15" t="n">
-        <v>58.7141831913852</v>
+        <v>59.4895191451955</v>
       </c>
       <c r="F15" t="n">
         <v>2020</v>
@@ -1350,13 +1350,13 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>265.449836061646</v>
+        <v>266.237053572998</v>
       </c>
       <c r="D16" t="n">
-        <v>248.618843796267</v>
+        <v>247.199435739901</v>
       </c>
       <c r="E16" t="n">
-        <v>285.612594368458</v>
+        <v>284.933647716534</v>
       </c>
       <c r="F16" t="n">
         <v>2020</v>
@@ -1388,13 +1388,13 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>315.095444453902</v>
+        <v>314.229190649322</v>
       </c>
       <c r="D17" t="n">
-        <v>296.196630231887</v>
+        <v>293.25612361541</v>
       </c>
       <c r="E17" t="n">
-        <v>335.640183896906</v>
+        <v>337.570951089888</v>
       </c>
       <c r="F17" t="n">
         <v>2020</v>
@@ -1426,13 +1426,13 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>291.186528123112</v>
+        <v>292.681888605463</v>
       </c>
       <c r="D18" t="n">
-        <v>271.740138933348</v>
+        <v>273.410664699298</v>
       </c>
       <c r="E18" t="n">
-        <v>311.084631098114</v>
+        <v>314.732856418749</v>
       </c>
       <c r="F18" t="n">
         <v>2020</v>
@@ -1464,13 +1464,13 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>70.46226786351</v>
+        <v>70.4278702154033</v>
       </c>
       <c r="D19" t="n">
-        <v>63.6747997030952</v>
+        <v>63.272631293279</v>
       </c>
       <c r="E19" t="n">
-        <v>78.9393612918421</v>
+        <v>78.1806957687155</v>
       </c>
       <c r="F19" t="n">
         <v>2020</v>
@@ -1502,13 +1502,13 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>446.351072649912</v>
+        <v>449.4535620834</v>
       </c>
       <c r="D20" t="n">
-        <v>422.801861474287</v>
+        <v>421.344080093756</v>
       </c>
       <c r="E20" t="n">
-        <v>476.66156374325</v>
+        <v>477.835834675003</v>
       </c>
       <c r="F20" t="n">
         <v>2020</v>
@@ -1540,13 +1540,13 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>219.080680358293</v>
+        <v>218.523876278867</v>
       </c>
       <c r="D21" t="n">
-        <v>202.911734582715</v>
+        <v>203.932360619093</v>
       </c>
       <c r="E21" t="n">
-        <v>234.320955154589</v>
+        <v>235.600481718344</v>
       </c>
       <c r="F21" t="n">
         <v>2020</v>
@@ -1578,13 +1578,13 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>251.26727623114</v>
+        <v>251.449356050346</v>
       </c>
       <c r="D22" t="n">
-        <v>233.762661935621</v>
+        <v>232.61709235666</v>
       </c>
       <c r="E22" t="n">
-        <v>269.358959684553</v>
+        <v>270.413468224551</v>
       </c>
       <c r="F22" t="n">
         <v>2020</v>
@@ -1616,13 +1616,13 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>704.007343506491</v>
+        <v>705.796794856428</v>
       </c>
       <c r="D23" t="n">
-        <v>668.277170348127</v>
+        <v>670.404858034481</v>
       </c>
       <c r="E23" t="n">
-        <v>740.452159938577</v>
+        <v>745.788533304111</v>
       </c>
       <c r="F23" t="n">
         <v>2020</v>
@@ -1654,13 +1654,13 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>426.076100604697</v>
+        <v>426.181523642222</v>
       </c>
       <c r="D24" t="n">
-        <v>401.635405676041</v>
+        <v>400.412734900355</v>
       </c>
       <c r="E24" t="n">
-        <v>452.491748660146</v>
+        <v>455.414485849993</v>
       </c>
       <c r="F24" t="n">
         <v>2020</v>
@@ -1692,13 +1692,13 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>459.808234252082</v>
+        <v>459.946173028185</v>
       </c>
       <c r="D25" t="n">
-        <v>433.519965293935</v>
+        <v>435.336063620941</v>
       </c>
       <c r="E25" t="n">
-        <v>485.524387992117</v>
+        <v>489.103534374</v>
       </c>
       <c r="F25" t="n">
         <v>2020</v>
@@ -1730,13 +1730,13 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>422.501798085321</v>
+        <v>423.310839129068</v>
       </c>
       <c r="D26" t="n">
-        <v>397.700403431003</v>
+        <v>397.965787166611</v>
       </c>
       <c r="E26" t="n">
-        <v>448.871979538924</v>
+        <v>450.596176456434</v>
       </c>
       <c r="F26" t="n">
         <v>2020</v>
@@ -1768,13 +1768,13 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>262.470363907077</v>
+        <v>263.484167210448</v>
       </c>
       <c r="D27" t="n">
-        <v>245.573245131376</v>
+        <v>245.379809218831</v>
       </c>
       <c r="E27" t="n">
-        <v>282.002120618735</v>
+        <v>280.768293661927</v>
       </c>
       <c r="F27" t="n">
         <v>2020</v>
@@ -1806,13 +1806,13 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>100.149490106408</v>
+        <v>99.9584028612161</v>
       </c>
       <c r="D28" t="n">
-        <v>89.8447847952347</v>
+        <v>90.3289606077305</v>
       </c>
       <c r="E28" t="n">
-        <v>109.971644734036</v>
+        <v>109.251361499071</v>
       </c>
       <c r="F28" t="n">
         <v>2020</v>
@@ -1844,13 +1844,13 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>178.298143206468</v>
+        <v>178.885854626104</v>
       </c>
       <c r="D29" t="n">
-        <v>164.869605019676</v>
+        <v>165.822287508675</v>
       </c>
       <c r="E29" t="n">
-        <v>193.381492434864</v>
+        <v>194.464498775253</v>
       </c>
       <c r="F29" t="n">
         <v>2020</v>
@@ -1882,13 +1882,13 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>88.8973558548541</v>
+        <v>89.0947732635281</v>
       </c>
       <c r="D30" t="n">
-        <v>80.1970880606281</v>
+        <v>80.5448366911731</v>
       </c>
       <c r="E30" t="n">
-        <v>98.9758246838341</v>
+        <v>98.7884631284251</v>
       </c>
       <c r="F30" t="n">
         <v>2020</v>
@@ -1920,13 +1920,13 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>845.448530922637</v>
+        <v>847.480855236458</v>
       </c>
       <c r="D31" t="n">
-        <v>806.469409396871</v>
+        <v>805.835242885181</v>
       </c>
       <c r="E31" t="n">
-        <v>886.271643470144</v>
+        <v>888.198863808398</v>
       </c>
       <c r="F31" t="n">
         <v>2020</v>
@@ -1958,13 +1958,13 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>365.818822633855</v>
+        <v>366.523539932363</v>
       </c>
       <c r="D32" t="n">
-        <v>343.81780326296</v>
+        <v>345.150149007864</v>
       </c>
       <c r="E32" t="n">
-        <v>389.649974759959</v>
+        <v>389.876110241036</v>
       </c>
       <c r="F32" t="n">
         <v>2020</v>
@@ -1996,13 +1996,13 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>203.980735922416</v>
+        <v>203.761528078339</v>
       </c>
       <c r="D33" t="n">
-        <v>188.558585503706</v>
+        <v>187.337684554103</v>
       </c>
       <c r="E33" t="n">
-        <v>218.435042916716</v>
+        <v>221.238933912217</v>
       </c>
       <c r="F33" t="n">
         <v>2020</v>
@@ -2034,13 +2034,13 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>510.102392491873</v>
+        <v>512.890287379236</v>
       </c>
       <c r="D34" t="n">
-        <v>483.140617982773</v>
+        <v>484.641898682217</v>
       </c>
       <c r="E34" t="n">
-        <v>542.231123932909</v>
+        <v>541.474888600863</v>
       </c>
       <c r="F34" t="n">
         <v>2020</v>
@@ -2072,13 +2072,13 @@
         <v>34</v>
       </c>
       <c r="C35" t="n">
-        <v>103.438076040365</v>
+        <v>102.942342669199</v>
       </c>
       <c r="D35" t="n">
-        <v>94.3614713719589</v>
+        <v>93.5862303678074</v>
       </c>
       <c r="E35" t="n">
-        <v>113.972925694584</v>
+        <v>113.39886470282</v>
       </c>
       <c r="F35" t="n">
         <v>2020</v>
@@ -2110,13 +2110,13 @@
         <v>35</v>
       </c>
       <c r="C36" t="n">
-        <v>442.914994081723</v>
+        <v>443.372438764656</v>
       </c>
       <c r="D36" t="n">
-        <v>417.426690746055</v>
+        <v>419.296353307983</v>
       </c>
       <c r="E36" t="n">
-        <v>467.578319221493</v>
+        <v>471.998799025579</v>
       </c>
       <c r="F36" t="n">
         <v>2020</v>
@@ -2148,13 +2148,13 @@
         <v>36</v>
       </c>
       <c r="C37" t="n">
-        <v>105.419351567737</v>
+        <v>106.030413034159</v>
       </c>
       <c r="D37" t="n">
-        <v>95.8450464600892</v>
+        <v>95.4862580711778</v>
       </c>
       <c r="E37" t="n">
-        <v>116.315195196825</v>
+        <v>116.361102757253</v>
       </c>
       <c r="F37" t="n">
         <v>2020</v>
@@ -2186,13 +2186,13 @@
         <v>37</v>
       </c>
       <c r="C38" t="n">
-        <v>823.482339173932</v>
+        <v>822.736431908249</v>
       </c>
       <c r="D38" t="n">
-        <v>789.203722435042</v>
+        <v>781.857383333057</v>
       </c>
       <c r="E38" t="n">
-        <v>863.882268912224</v>
+        <v>867.458921712033</v>
       </c>
       <c r="F38" t="n">
         <v>2020</v>
@@ -2224,13 +2224,13 @@
         <v>38</v>
       </c>
       <c r="C39" t="n">
-        <v>408.213724641339</v>
+        <v>409.928796198856</v>
       </c>
       <c r="D39" t="n">
-        <v>382.965939479104</v>
+        <v>384.279098430877</v>
       </c>
       <c r="E39" t="n">
-        <v>435.117484642237</v>
+        <v>436.916402414773</v>
       </c>
       <c r="F39" t="n">
         <v>2020</v>
@@ -2262,13 +2262,13 @@
         <v>39</v>
       </c>
       <c r="C40" t="n">
-        <v>520.850245735078</v>
+        <v>519.245113867138</v>
       </c>
       <c r="D40" t="n">
-        <v>493.543692259879</v>
+        <v>491.569163989201</v>
       </c>
       <c r="E40" t="n">
-        <v>549.251574927225</v>
+        <v>551.407813765297</v>
       </c>
       <c r="F40" t="n">
         <v>2020</v>
@@ -2300,13 +2300,13 @@
         <v>40</v>
       </c>
       <c r="C41" t="n">
-        <v>584.119170481688</v>
+        <v>584.635931450461</v>
       </c>
       <c r="D41" t="n">
-        <v>551.708994392621</v>
+        <v>552.409595860771</v>
       </c>
       <c r="E41" t="n">
-        <v>618.040823087941</v>
+        <v>619.314375881606</v>
       </c>
       <c r="F41" t="n">
         <v>2020</v>
@@ -2338,13 +2338,13 @@
         <v>41</v>
       </c>
       <c r="C42" t="n">
-        <v>66.8039888748221</v>
+        <v>67.4739577991752</v>
       </c>
       <c r="D42" t="n">
-        <v>59.7639025229812</v>
+        <v>60.5163675314972</v>
       </c>
       <c r="E42" t="n">
-        <v>74.4155396939304</v>
+        <v>74.9210116232222</v>
       </c>
       <c r="F42" t="n">
         <v>2020</v>
@@ -2376,13 +2376,13 @@
         <v>42</v>
       </c>
       <c r="C43" t="n">
-        <v>39.4903790508691</v>
+        <v>39.5157576934724</v>
       </c>
       <c r="D43" t="n">
-        <v>34.8418669602905</v>
+        <v>34.7338469418977</v>
       </c>
       <c r="E43" t="n">
-        <v>44.4879282436918</v>
+        <v>44.7463870823763</v>
       </c>
       <c r="F43" t="n">
         <v>2020</v>
@@ -2414,13 +2414,13 @@
         <v>43</v>
       </c>
       <c r="C44" t="n">
-        <v>342.190551477753</v>
+        <v>343.058569707067</v>
       </c>
       <c r="D44" t="n">
-        <v>320.140541503434</v>
+        <v>320.125386789305</v>
       </c>
       <c r="E44" t="n">
-        <v>364.150508737709</v>
+        <v>364.8656267124</v>
       </c>
       <c r="F44" t="n">
         <v>2020</v>
@@ -2452,13 +2452,13 @@
         <v>44</v>
       </c>
       <c r="C45" t="n">
-        <v>89.8838638153748</v>
+        <v>89.4460158244927</v>
       </c>
       <c r="D45" t="n">
-        <v>80.5628068726358</v>
+        <v>80.7263134851225</v>
       </c>
       <c r="E45" t="n">
-        <v>99.4677516271725</v>
+        <v>99.5930542263503</v>
       </c>
       <c r="F45" t="n">
         <v>2020</v>
@@ -2490,13 +2490,13 @@
         <v>45</v>
       </c>
       <c r="C46" t="n">
-        <v>258.23645394833</v>
+        <v>259.041944016849</v>
       </c>
       <c r="D46" t="n">
-        <v>240.613227010857</v>
+        <v>242.272628232715</v>
       </c>
       <c r="E46" t="n">
-        <v>275.966213958129</v>
+        <v>278.483793138263</v>
       </c>
       <c r="F46" t="n">
         <v>2020</v>
@@ -2528,13 +2528,13 @@
         <v>46</v>
       </c>
       <c r="C47" t="n">
-        <v>180.898464054126</v>
+        <v>179.83621853682</v>
       </c>
       <c r="D47" t="n">
-        <v>167.019427191738</v>
+        <v>165.221712813341</v>
       </c>
       <c r="E47" t="n">
-        <v>195.93556393368</v>
+        <v>196.541082481649</v>
       </c>
       <c r="F47" t="n">
         <v>2020</v>
@@ -2566,13 +2566,13 @@
         <v>47</v>
       </c>
       <c r="C48" t="n">
-        <v>401.323988547737</v>
+        <v>401.876839147968</v>
       </c>
       <c r="D48" t="n">
-        <v>377.548883871268</v>
+        <v>375.004320820117</v>
       </c>
       <c r="E48" t="n">
-        <v>425.663727276501</v>
+        <v>430.282753226021</v>
       </c>
       <c r="F48" t="n">
         <v>2020</v>
@@ -2604,13 +2604,13 @@
         <v>48</v>
       </c>
       <c r="C49" t="n">
-        <v>806.970618513098</v>
+        <v>807.475409699828</v>
       </c>
       <c r="D49" t="n">
-        <v>770.077985931825</v>
+        <v>768.366769968694</v>
       </c>
       <c r="E49" t="n">
-        <v>845.46508983438</v>
+        <v>845.549702299787</v>
       </c>
       <c r="F49" t="n">
         <v>2020</v>
@@ -2642,13 +2642,13 @@
         <v>49</v>
       </c>
       <c r="C50" t="n">
-        <v>126.951530010913</v>
+        <v>127.422700091308</v>
       </c>
       <c r="D50" t="n">
-        <v>116.001688398827</v>
+        <v>115.808020543063</v>
       </c>
       <c r="E50" t="n">
-        <v>138.719972148705</v>
+        <v>140.33926420501</v>
       </c>
       <c r="F50" t="n">
         <v>2020</v>
@@ -2680,13 +2680,13 @@
         <v>50</v>
       </c>
       <c r="C51" t="n">
-        <v>359.95110898746</v>
+        <v>360.606361568167</v>
       </c>
       <c r="D51" t="n">
-        <v>339.10284575228</v>
+        <v>338.782630402721</v>
       </c>
       <c r="E51" t="n">
-        <v>384.237624069619</v>
+        <v>385.699700418589</v>
       </c>
       <c r="F51" t="n">
         <v>2020</v>
@@ -2718,13 +2718,13 @@
         <v>51</v>
       </c>
       <c r="C52" t="n">
-        <v>179.967081044734</v>
+        <v>180.69313979399</v>
       </c>
       <c r="D52" t="n">
-        <v>166.498020382965</v>
+        <v>165.706402011426</v>
       </c>
       <c r="E52" t="n">
-        <v>195.363018238957</v>
+        <v>196.530726270745</v>
       </c>
       <c r="F52" t="n">
         <v>2020</v>
@@ -2756,13 +2756,13 @@
         <v>52</v>
       </c>
       <c r="C53" t="n">
-        <v>47.2782796048894</v>
+        <v>47.2594116683193</v>
       </c>
       <c r="D53" t="n">
-        <v>41.9706059500981</v>
+        <v>41.990119779984</v>
       </c>
       <c r="E53" t="n">
-        <v>53.3451446638961</v>
+        <v>53.6553806045218</v>
       </c>
       <c r="F53" t="n">
         <v>2020</v>
@@ -2794,13 +2794,13 @@
         <v>53</v>
       </c>
       <c r="C54" t="n">
-        <v>46.1792230132233</v>
+        <v>46.3588242237156</v>
       </c>
       <c r="D54" t="n">
-        <v>40.3647940897498</v>
+        <v>40.6148862900317</v>
       </c>
       <c r="E54" t="n">
-        <v>52.1043812142218</v>
+        <v>53.2430631920016</v>
       </c>
       <c r="F54" t="n">
         <v>2020</v>
@@ -2832,13 +2832,13 @@
         <v>54</v>
       </c>
       <c r="C55" t="n">
-        <v>325.939906228327</v>
+        <v>325.571331398333</v>
       </c>
       <c r="D55" t="n">
-        <v>304.196192268448</v>
+        <v>304.030139444047</v>
       </c>
       <c r="E55" t="n">
-        <v>346.661142230385</v>
+        <v>347.556564486555</v>
       </c>
       <c r="F55" t="n">
         <v>2020</v>
@@ -2870,13 +2870,13 @@
         <v>55</v>
       </c>
       <c r="C56" t="n">
-        <v>524.440876991289</v>
+        <v>525.088212495803</v>
       </c>
       <c r="D56" t="n">
-        <v>497.433433723291</v>
+        <v>493.420816868139</v>
       </c>
       <c r="E56" t="n">
-        <v>554.292345519553</v>
+        <v>557.934590661175</v>
       </c>
       <c r="F56" t="n">
         <v>2020</v>
@@ -2908,13 +2908,13 @@
         <v>56</v>
       </c>
       <c r="C57" t="n">
-        <v>599.741150801333</v>
+        <v>600.857734334578</v>
       </c>
       <c r="D57" t="n">
-        <v>567.314998647058</v>
+        <v>568.578347907045</v>
       </c>
       <c r="E57" t="n">
-        <v>635.568354836168</v>
+        <v>636.069368534309</v>
       </c>
       <c r="F57" t="n">
         <v>2020</v>
@@ -2946,13 +2946,13 @@
         <v>57</v>
       </c>
       <c r="C58" t="n">
-        <v>750.955662229985</v>
+        <v>751.096922864182</v>
       </c>
       <c r="D58" t="n">
-        <v>715.856572450405</v>
+        <v>711.851525557401</v>
       </c>
       <c r="E58" t="n">
-        <v>787.985558341523</v>
+        <v>791.332800489131</v>
       </c>
       <c r="F58" t="n">
         <v>2020</v>
@@ -2984,13 +2984,13 @@
         <v>58</v>
       </c>
       <c r="C59" t="n">
-        <v>220.880346340434</v>
+        <v>221.076817183097</v>
       </c>
       <c r="D59" t="n">
-        <v>204.649400331452</v>
+        <v>204.39937017544</v>
       </c>
       <c r="E59" t="n">
-        <v>237.953208237892</v>
+        <v>239.67732025891</v>
       </c>
       <c r="F59" t="n">
         <v>2020</v>
@@ -3022,13 +3022,13 @@
         <v>59</v>
       </c>
       <c r="C60" t="n">
-        <v>802.976766019246</v>
+        <v>803.03396968505</v>
       </c>
       <c r="D60" t="n">
-        <v>764.272408941582</v>
+        <v>763.162229633548</v>
       </c>
       <c r="E60" t="n">
-        <v>842.251140212782</v>
+        <v>845.786170610689</v>
       </c>
       <c r="F60" t="n">
         <v>2020</v>
@@ -3060,13 +3060,13 @@
         <v>60</v>
       </c>
       <c r="C61" t="n">
-        <v>359.702942998221</v>
+        <v>361.430819162404</v>
       </c>
       <c r="D61" t="n">
-        <v>337.494532415578</v>
+        <v>338.179235153298</v>
       </c>
       <c r="E61" t="n">
-        <v>383.334141054865</v>
+        <v>384.649894378761</v>
       </c>
       <c r="F61" t="n">
         <v>2020</v>
@@ -3098,13 +3098,13 @@
         <v>61</v>
       </c>
       <c r="C62" t="n">
-        <v>199.70875141591</v>
+        <v>201.270134457425</v>
       </c>
       <c r="D62" t="n">
-        <v>184.590279759245</v>
+        <v>185.121169893779</v>
       </c>
       <c r="E62" t="n">
-        <v>215.7785953739</v>
+        <v>216.957593404313</v>
       </c>
       <c r="F62" t="n">
         <v>2020</v>
@@ -3136,13 +3136,13 @@
         <v>62</v>
       </c>
       <c r="C63" t="n">
-        <v>1027.9504491523</v>
+        <v>1029.33176707883</v>
       </c>
       <c r="D63" t="n">
-        <v>986.649687760789</v>
+        <v>981.536081241639</v>
       </c>
       <c r="E63" t="n">
-        <v>1076.98578259614</v>
+        <v>1079.8714062175</v>
       </c>
       <c r="F63" t="n">
         <v>2020</v>
@@ -3174,13 +3174,13 @@
         <v>63</v>
       </c>
       <c r="C64" t="n">
-        <v>76.9314461906965</v>
+        <v>77.1653012210038</v>
       </c>
       <c r="D64" t="n">
-        <v>70.0741661780415</v>
+        <v>69.1730475468862</v>
       </c>
       <c r="E64" t="n">
-        <v>85.5185241836278</v>
+        <v>85.781297945141</v>
       </c>
       <c r="F64" t="n">
         <v>2020</v>
@@ -3212,13 +3212,13 @@
         <v>64</v>
       </c>
       <c r="C65" t="n">
-        <v>281.448808694152</v>
+        <v>281.568232393658</v>
       </c>
       <c r="D65" t="n">
-        <v>260.818989177384</v>
+        <v>262.340625340717</v>
       </c>
       <c r="E65" t="n">
-        <v>301.575576318946</v>
+        <v>303.846549969549</v>
       </c>
       <c r="F65" t="n">
         <v>2020</v>
@@ -3250,13 +3250,13 @@
         <v>65</v>
       </c>
       <c r="C66" t="n">
-        <v>282.369092651249</v>
+        <v>283.801967427508</v>
       </c>
       <c r="D66" t="n">
-        <v>263.654060456569</v>
+        <v>263.314514057465</v>
       </c>
       <c r="E66" t="n">
-        <v>305.646229520797</v>
+        <v>303.69910375627</v>
       </c>
       <c r="F66" t="n">
         <v>2020</v>
@@ -3288,13 +3288,13 @@
         <v>66</v>
       </c>
       <c r="C67" t="n">
-        <v>101.709868644768</v>
+        <v>101.601097812523</v>
       </c>
       <c r="D67" t="n">
-        <v>91.3798433525786</v>
+        <v>91.8342482284273</v>
       </c>
       <c r="E67" t="n">
-        <v>111.929555038102</v>
+        <v>112.436184857143</v>
       </c>
       <c r="F67" t="n">
         <v>2020</v>
@@ -3326,13 +3326,13 @@
         <v>67</v>
       </c>
       <c r="C68" t="n">
-        <v>164.284823835314</v>
+        <v>163.965186272624</v>
       </c>
       <c r="D68" t="n">
-        <v>151.009196208274</v>
+        <v>150.27795497683</v>
       </c>
       <c r="E68" t="n">
-        <v>177.540761495012</v>
+        <v>178.824324257789</v>
       </c>
       <c r="F68" t="n">
         <v>2020</v>
@@ -3364,13 +3364,13 @@
         <v>68</v>
       </c>
       <c r="C69" t="n">
-        <v>180.728674934943</v>
+        <v>180.883839758215</v>
       </c>
       <c r="D69" t="n">
-        <v>166.847598874924</v>
+        <v>166.998283995619</v>
       </c>
       <c r="E69" t="n">
-        <v>195.663335785496</v>
+        <v>196.484060338054</v>
       </c>
       <c r="F69" t="n">
         <v>2020</v>
@@ -3402,13 +3402,13 @@
         <v>69</v>
       </c>
       <c r="C70" t="n">
-        <v>794.053213313241</v>
+        <v>795.153036785779</v>
       </c>
       <c r="D70" t="n">
-        <v>754.501011678633</v>
+        <v>755.633345783691</v>
       </c>
       <c r="E70" t="n">
-        <v>834.142443922928</v>
+        <v>832.927024576356</v>
       </c>
       <c r="F70" t="n">
         <v>2020</v>
@@ -3440,13 +3440,13 @@
         <v>70</v>
       </c>
       <c r="C71" t="n">
-        <v>65.5705735889017</v>
+        <v>66.0151342637903</v>
       </c>
       <c r="D71" t="n">
-        <v>58.4477908127018</v>
+        <v>58.6108920511608</v>
       </c>
       <c r="E71" t="n">
-        <v>73.0950638152186</v>
+        <v>74.0120600460633</v>
       </c>
       <c r="F71" t="n">
         <v>2020</v>
@@ -3478,13 +3478,13 @@
         <v>71</v>
       </c>
       <c r="C72" t="n">
-        <v>132.284145728184</v>
+        <v>133.020056616096</v>
       </c>
       <c r="D72" t="n">
-        <v>120.433735548286</v>
+        <v>120.975960157413</v>
       </c>
       <c r="E72" t="n">
-        <v>145.128919120816</v>
+        <v>145.360370997055</v>
       </c>
       <c r="F72" t="n">
         <v>2020</v>
@@ -3516,13 +3516,13 @@
         <v>72</v>
       </c>
       <c r="C73" t="n">
-        <v>222.179421560565</v>
+        <v>222.934496779767</v>
       </c>
       <c r="D73" t="n">
-        <v>206.304785978095</v>
+        <v>205.584101711918</v>
       </c>
       <c r="E73" t="n">
-        <v>239.161953494013</v>
+        <v>239.771200706542</v>
       </c>
       <c r="F73" t="n">
         <v>2020</v>
@@ -3554,13 +3554,13 @@
         <v>73</v>
       </c>
       <c r="C74" t="n">
-        <v>639.269670885745</v>
+        <v>639.617484571611</v>
       </c>
       <c r="D74" t="n">
-        <v>605.970853610206</v>
+        <v>606.139584259463</v>
       </c>
       <c r="E74" t="n">
-        <v>675.303197739615</v>
+        <v>678.307301972742</v>
       </c>
       <c r="F74" t="n">
         <v>2020</v>
@@ -3592,13 +3592,13 @@
         <v>74</v>
       </c>
       <c r="C75" t="n">
-        <v>94.8370291556995</v>
+        <v>94.8740428486751</v>
       </c>
       <c r="D75" t="n">
-        <v>85.9438387619877</v>
+        <v>86.2341808633356</v>
       </c>
       <c r="E75" t="n">
-        <v>104.343832910132</v>
+        <v>105.023058135333</v>
       </c>
       <c r="F75" t="n">
         <v>2020</v>
@@ -3630,13 +3630,13 @@
         <v>75</v>
       </c>
       <c r="C76" t="n">
-        <v>81.6820667907253</v>
+        <v>81.5786905185365</v>
       </c>
       <c r="D76" t="n">
-        <v>73.309401087985</v>
+        <v>73.189750530932</v>
       </c>
       <c r="E76" t="n">
-        <v>91.1113689969939</v>
+        <v>91.6503521928954</v>
       </c>
       <c r="F76" t="n">
         <v>2020</v>
@@ -3668,13 +3668,13 @@
         <v>76</v>
       </c>
       <c r="C77" t="n">
-        <v>557.288530449427</v>
+        <v>558.208691564653</v>
       </c>
       <c r="D77" t="n">
-        <v>528.081067439495</v>
+        <v>526.823926189336</v>
       </c>
       <c r="E77" t="n">
-        <v>588.577806468576</v>
+        <v>590.325367440105</v>
       </c>
       <c r="F77" t="n">
         <v>2020</v>
@@ -3706,13 +3706,13 @@
         <v>77</v>
       </c>
       <c r="C78" t="n">
-        <v>211.772143728738</v>
+        <v>210.925089612753</v>
       </c>
       <c r="D78" t="n">
-        <v>195.430154029207</v>
+        <v>194.689751287935</v>
       </c>
       <c r="E78" t="n">
-        <v>229.171138813826</v>
+        <v>228.030572376877</v>
       </c>
       <c r="F78" t="n">
         <v>2020</v>
@@ -3744,13 +3744,13 @@
         <v>78</v>
       </c>
       <c r="C79" t="n">
-        <v>408.624267367158</v>
+        <v>407.378462855419</v>
       </c>
       <c r="D79" t="n">
-        <v>385.760039245381</v>
+        <v>383.872580212832</v>
       </c>
       <c r="E79" t="n">
-        <v>435.181204781693</v>
+        <v>434.921799662992</v>
       </c>
       <c r="F79" t="n">
         <v>2020</v>
@@ -3782,13 +3782,13 @@
         <v>79</v>
       </c>
       <c r="C80" t="n">
-        <v>293.006983701457</v>
+        <v>292.706854192117</v>
       </c>
       <c r="D80" t="n">
-        <v>273.717366557709</v>
+        <v>272.932863624234</v>
       </c>
       <c r="E80" t="n">
-        <v>312.648426398587</v>
+        <v>313.875351779559</v>
       </c>
       <c r="F80" t="n">
         <v>2020</v>
@@ -3820,13 +3820,13 @@
         <v>80</v>
       </c>
       <c r="C81" t="n">
-        <v>309.057756038379</v>
+        <v>310.138684341054</v>
       </c>
       <c r="D81" t="n">
-        <v>289.21794755048</v>
+        <v>288.179477965706</v>
       </c>
       <c r="E81" t="n">
-        <v>329.145329344966</v>
+        <v>330.641971664537</v>
       </c>
       <c r="F81" t="n">
         <v>2020</v>
@@ -3858,13 +3858,13 @@
         <v>81</v>
       </c>
       <c r="C82" t="n">
-        <v>337.427535232009</v>
+        <v>337.279019282213</v>
       </c>
       <c r="D82" t="n">
-        <v>316.75508679337</v>
+        <v>315.849600030345</v>
       </c>
       <c r="E82" t="n">
-        <v>359.253776606433</v>
+        <v>361.648287005463</v>
       </c>
       <c r="F82" t="n">
         <v>2020</v>
@@ -3896,13 +3896,13 @@
         <v>82</v>
       </c>
       <c r="C83" t="n">
-        <v>1307.02029418262</v>
+        <v>1307.6062846136</v>
       </c>
       <c r="D83" t="n">
-        <v>1254.34379184866</v>
+        <v>1250.12882140337</v>
       </c>
       <c r="E83" t="n">
-        <v>1361.42822461314</v>
+        <v>1371.63711327869</v>
       </c>
       <c r="F83" t="n">
         <v>2020</v>
@@ -3934,13 +3934,13 @@
         <v>83</v>
       </c>
       <c r="C84" t="n">
-        <v>186.497407579817</v>
+        <v>187.543224922497</v>
       </c>
       <c r="D84" t="n">
-        <v>172.351169886476</v>
+        <v>173.298478424523</v>
       </c>
       <c r="E84" t="n">
-        <v>201.667223743546</v>
+        <v>203.825304253846</v>
       </c>
       <c r="F84" t="n">
         <v>2020</v>
@@ -3972,13 +3972,13 @@
         <v>84</v>
       </c>
       <c r="C85" t="n">
-        <v>278.449791479492</v>
+        <v>278.677085622271</v>
       </c>
       <c r="D85" t="n">
-        <v>259.794242486723</v>
+        <v>257.723928126621</v>
       </c>
       <c r="E85" t="n">
-        <v>298.219661182625</v>
+        <v>299.636410280171</v>
       </c>
       <c r="F85" t="n">
         <v>2020</v>
@@ -4010,13 +4010,13 @@
         <v>85</v>
       </c>
       <c r="C86" t="n">
-        <v>250.39067091068</v>
+        <v>250.234228560768</v>
       </c>
       <c r="D86" t="n">
-        <v>233.448278433183</v>
+        <v>231.973933255143</v>
       </c>
       <c r="E86" t="n">
-        <v>267.745929457605</v>
+        <v>269.573418213303</v>
       </c>
       <c r="F86" t="n">
         <v>2020</v>
@@ -4048,13 +4048,13 @@
         <v>86</v>
       </c>
       <c r="C87" t="n">
-        <v>907.879387242173</v>
+        <v>907.584749205644</v>
       </c>
       <c r="D87" t="n">
-        <v>867.302520126643</v>
+        <v>860.779072633089</v>
       </c>
       <c r="E87" t="n">
-        <v>949.507982916658</v>
+        <v>957.398286954228</v>
       </c>
       <c r="F87" t="n">
         <v>2020</v>
@@ -4086,13 +4086,13 @@
         <v>87</v>
       </c>
       <c r="C88" t="n">
-        <v>80.6755487501447</v>
+        <v>80.8112134946306</v>
       </c>
       <c r="D88" t="n">
-        <v>72.7074822304819</v>
+        <v>72.4178979300724</v>
       </c>
       <c r="E88" t="n">
-        <v>89.3551813435609</v>
+        <v>88.8992564859817</v>
       </c>
       <c r="F88" t="n">
         <v>2020</v>
@@ -4124,13 +4124,13 @@
         <v>88</v>
       </c>
       <c r="C89" t="n">
-        <v>238.767256066402</v>
+        <v>237.724110802086</v>
       </c>
       <c r="D89" t="n">
-        <v>221.53454741525</v>
+        <v>220.781839941216</v>
       </c>
       <c r="E89" t="n">
-        <v>256.924962216604</v>
+        <v>257.947765495292</v>
       </c>
       <c r="F89" t="n">
         <v>2020</v>
@@ -4162,13 +4162,13 @@
         <v>89</v>
       </c>
       <c r="C90" t="n">
-        <v>291.408061591429</v>
+        <v>292.035914007888</v>
       </c>
       <c r="D90" t="n">
-        <v>270.723638442153</v>
+        <v>272.494685925439</v>
       </c>
       <c r="E90" t="n">
-        <v>310.981019342078</v>
+        <v>311.699116496836</v>
       </c>
       <c r="F90" t="n">
         <v>2020</v>
@@ -4200,13 +4200,13 @@
         <v>90</v>
       </c>
       <c r="C91" t="n">
-        <v>321.320425244</v>
+        <v>321.241681642575</v>
       </c>
       <c r="D91" t="n">
-        <v>300.312271742076</v>
+        <v>300.99544005231</v>
       </c>
       <c r="E91" t="n">
-        <v>342.374241608995</v>
+        <v>344.362671122918</v>
       </c>
       <c r="F91" t="n">
         <v>2020</v>
@@ -4238,13 +4238,13 @@
         <v>91</v>
       </c>
       <c r="C92" t="n">
-        <v>1125.12990975124</v>
+        <v>1125.77671126723</v>
       </c>
       <c r="D92" t="n">
-        <v>1077.51593156249</v>
+        <v>1077.20115211277</v>
       </c>
       <c r="E92" t="n">
-        <v>1174.16478116212</v>
+        <v>1177.09418141744</v>
       </c>
       <c r="F92" t="n">
         <v>2020</v>
@@ -4276,13 +4276,13 @@
         <v>92</v>
       </c>
       <c r="C93" t="n">
-        <v>405.252707366198</v>
+        <v>405.557993611641</v>
       </c>
       <c r="D93" t="n">
-        <v>383.029873410032</v>
+        <v>380.809809393479</v>
       </c>
       <c r="E93" t="n">
-        <v>434.086514206605</v>
+        <v>434.818468016342</v>
       </c>
       <c r="F93" t="n">
         <v>2020</v>
@@ -4314,13 +4314,13 @@
         <v>93</v>
       </c>
       <c r="C94" t="n">
-        <v>114.917340374717</v>
+        <v>115.405792268995</v>
       </c>
       <c r="D94" t="n">
-        <v>105.067762378153</v>
+        <v>104.976607773485</v>
       </c>
       <c r="E94" t="n">
-        <v>126.137445148737</v>
+        <v>126.37609328394</v>
       </c>
       <c r="F94" t="n">
         <v>2020</v>
@@ -4352,13 +4352,13 @@
         <v>94</v>
       </c>
       <c r="C95" t="n">
-        <v>16.6669471943009</v>
+        <v>16.6131994827431</v>
       </c>
       <c r="D95" t="n">
-        <v>14.3458842543965</v>
+        <v>14.2466206585357</v>
       </c>
       <c r="E95" t="n">
-        <v>19.1181001169342</v>
+        <v>19.2829864108303</v>
       </c>
       <c r="F95" t="n">
         <v>2020</v>
@@ -4390,13 +4390,13 @@
         <v>95</v>
       </c>
       <c r="C96" t="n">
-        <v>167.20407654671</v>
+        <v>167.303851014734</v>
       </c>
       <c r="D96" t="n">
-        <v>153.241105719833</v>
+        <v>153.688016209731</v>
       </c>
       <c r="E96" t="n">
-        <v>180.095586834079</v>
+        <v>183.152376981731</v>
       </c>
       <c r="F96" t="n">
         <v>2020</v>
@@ -4428,13 +4428,13 @@
         <v>96</v>
       </c>
       <c r="C97" t="n">
-        <v>372.041996822154</v>
+        <v>372.560086541344</v>
       </c>
       <c r="D97" t="n">
-        <v>347.132831757386</v>
+        <v>348.171198986188</v>
       </c>
       <c r="E97" t="n">
-        <v>396.603947598005</v>
+        <v>397.930816836777</v>
       </c>
       <c r="F97" t="n">
         <v>2020</v>
@@ -4466,13 +4466,13 @@
         <v>97</v>
       </c>
       <c r="C98" t="n">
-        <v>407.548420015771</v>
+        <v>407.690082382612</v>
       </c>
       <c r="D98" t="n">
-        <v>383.198764317143</v>
+        <v>382.141987719926</v>
       </c>
       <c r="E98" t="n">
-        <v>433.140837427454</v>
+        <v>433.558606066021</v>
       </c>
       <c r="F98" t="n">
         <v>2020</v>
@@ -4504,13 +4504,13 @@
         <v>98</v>
       </c>
       <c r="C99" t="n">
-        <v>284.329030440805</v>
+        <v>283.85902123218</v>
       </c>
       <c r="D99" t="n">
-        <v>263.535269285679</v>
+        <v>265.226374191394</v>
       </c>
       <c r="E99" t="n">
-        <v>304.538916789539</v>
+        <v>304.403928746188</v>
       </c>
       <c r="F99" t="n">
         <v>2020</v>
@@ -4542,13 +4542,13 @@
         <v>99</v>
       </c>
       <c r="C100" t="n">
-        <v>278.716265749468</v>
+        <v>278.369100447962</v>
       </c>
       <c r="D100" t="n">
-        <v>258.255390497427</v>
+        <v>259.629180198574</v>
       </c>
       <c r="E100" t="n">
-        <v>298.09941843625</v>
+        <v>298.433816185025</v>
       </c>
       <c r="F100" t="n">
         <v>2020</v>
@@ -4580,13 +4580,13 @@
         <v>100</v>
       </c>
       <c r="C101" t="n">
-        <v>104.623691273182</v>
+        <v>104.688158401141</v>
       </c>
       <c r="D101" t="n">
-        <v>94.985410005379</v>
+        <v>93.9202872519556</v>
       </c>
       <c r="E101" t="n">
-        <v>115.600068427446</v>
+        <v>115.698154954278</v>
       </c>
       <c r="F101" t="n">
         <v>2020</v>
@@ -4618,13 +4618,13 @@
         <v>101</v>
       </c>
       <c r="C102" t="n">
-        <v>1224.35809258423</v>
+        <v>1230.42313440451</v>
       </c>
       <c r="D102" t="n">
-        <v>1175.65071626346</v>
+        <v>1173.22016301773</v>
       </c>
       <c r="E102" t="n">
-        <v>1282.2654814544</v>
+        <v>1289.63009246685</v>
       </c>
       <c r="F102" t="n">
         <v>2020</v>
@@ -4656,13 +4656,13 @@
         <v>102</v>
       </c>
       <c r="C103" t="n">
-        <v>682.091710446578</v>
+        <v>681.457740004855</v>
       </c>
       <c r="D103" t="n">
-        <v>649.799520608391</v>
+        <v>647.538009923683</v>
       </c>
       <c r="E103" t="n">
-        <v>718.840789203344</v>
+        <v>721.50429447124</v>
       </c>
       <c r="F103" t="n">
         <v>2020</v>
@@ -4694,13 +4694,13 @@
         <v>103</v>
       </c>
       <c r="C104" t="n">
-        <v>200.27065453987</v>
+        <v>201.787217679586</v>
       </c>
       <c r="D104" t="n">
-        <v>185.321357052214</v>
+        <v>186.78181768009</v>
       </c>
       <c r="E104" t="n">
-        <v>216.208314917564</v>
+        <v>218.758096414314</v>
       </c>
       <c r="F104" t="n">
         <v>2020</v>
@@ -4732,13 +4732,13 @@
         <v>104</v>
       </c>
       <c r="C105" t="n">
-        <v>348.592138135356</v>
+        <v>347.508219019913</v>
       </c>
       <c r="D105" t="n">
-        <v>325.863894903761</v>
+        <v>325.896531989001</v>
       </c>
       <c r="E105" t="n">
-        <v>371.817077122239</v>
+        <v>371.951408013697</v>
       </c>
       <c r="F105" t="n">
         <v>2020</v>
@@ -4770,13 +4770,13 @@
         <v>105</v>
       </c>
       <c r="C106" t="n">
-        <v>3130.77021998521</v>
+        <v>3128.88974473873</v>
       </c>
       <c r="D106" t="n">
-        <v>3028.31997356365</v>
+        <v>3011.17688427546</v>
       </c>
       <c r="E106" t="n">
-        <v>3233.35417970462</v>
+        <v>3252.6190537898</v>
       </c>
       <c r="F106" t="n">
         <v>2020</v>
@@ -4808,13 +4808,13 @@
         <v>106</v>
       </c>
       <c r="C107" t="n">
-        <v>260.869222830694</v>
+        <v>260.762334700775</v>
       </c>
       <c r="D107" t="n">
-        <v>242.364183747581</v>
+        <v>242.074946765124</v>
       </c>
       <c r="E107" t="n">
-        <v>280.073526456951</v>
+        <v>282.654487808591</v>
       </c>
       <c r="F107" t="n">
         <v>2020</v>
@@ -4846,13 +4846,13 @@
         <v>107</v>
       </c>
       <c r="C108" t="n">
-        <v>309.901304837337</v>
+        <v>310.10904286866</v>
       </c>
       <c r="D108" t="n">
-        <v>289.589460425032</v>
+        <v>288.704908594985</v>
       </c>
       <c r="E108" t="n">
-        <v>331.764542165353</v>
+        <v>331.68805563605</v>
       </c>
       <c r="F108" t="n">
         <v>2020</v>
@@ -4884,13 +4884,13 @@
         <v>108</v>
       </c>
       <c r="C109" t="n">
-        <v>118.612382524322</v>
+        <v>118.936953662292</v>
       </c>
       <c r="D109" t="n">
-        <v>107.997053414205</v>
+        <v>107.954817504073</v>
       </c>
       <c r="E109" t="n">
-        <v>129.383420658549</v>
+        <v>130.811855286659</v>
       </c>
       <c r="F109" t="n">
         <v>2020</v>
@@ -4922,13 +4922,13 @@
         <v>109</v>
       </c>
       <c r="C110" t="n">
-        <v>440.9333476117</v>
+        <v>440.254604712242</v>
       </c>
       <c r="D110" t="n">
-        <v>415.553662695455</v>
+        <v>413.282261412596</v>
       </c>
       <c r="E110" t="n">
-        <v>466.49246997486</v>
+        <v>469.476734346207</v>
       </c>
       <c r="F110" t="n">
         <v>2020</v>
@@ -4960,13 +4960,13 @@
         <v>110</v>
       </c>
       <c r="C111" t="n">
-        <v>567.897169455009</v>
+        <v>567.96200101925</v>
       </c>
       <c r="D111" t="n">
-        <v>538.523071416986</v>
+        <v>534.610852532996</v>
       </c>
       <c r="E111" t="n">
-        <v>598.098021569618</v>
+        <v>600.812694916567</v>
       </c>
       <c r="F111" t="n">
         <v>2020</v>
@@ -4998,13 +4998,13 @@
         <v>111</v>
       </c>
       <c r="C112" t="n">
-        <v>114.0252034783</v>
+        <v>114.792323733914</v>
       </c>
       <c r="D112" t="n">
-        <v>103.469090351813</v>
+        <v>102.794816741093</v>
       </c>
       <c r="E112" t="n">
-        <v>125.104797634402</v>
+        <v>125.633106739043</v>
       </c>
       <c r="F112" t="n">
         <v>2020</v>
@@ -5036,13 +5036,13 @@
         <v>112</v>
       </c>
       <c r="C113" t="n">
-        <v>282.38110745542</v>
+        <v>282.315674099557</v>
       </c>
       <c r="D113" t="n">
-        <v>263.907915093813</v>
+        <v>261.622800186578</v>
       </c>
       <c r="E113" t="n">
-        <v>302.441590168551</v>
+        <v>302.311209191401</v>
       </c>
       <c r="F113" t="n">
         <v>2020</v>
@@ -5074,13 +5074,13 @@
         <v>113</v>
       </c>
       <c r="C114" t="n">
-        <v>340.550878327585</v>
+        <v>340.052523187307</v>
       </c>
       <c r="D114" t="n">
-        <v>319.590259459074</v>
+        <v>317.561082782483</v>
       </c>
       <c r="E114" t="n">
-        <v>362.579884243248</v>
+        <v>364.019124173686</v>
       </c>
       <c r="F114" t="n">
         <v>2020</v>
@@ -5112,13 +5112,13 @@
         <v>114</v>
       </c>
       <c r="C115" t="n">
-        <v>644.248850380943</v>
+        <v>645.496889266898</v>
       </c>
       <c r="D115" t="n">
-        <v>614.196852963603</v>
+        <v>610.947846050592</v>
       </c>
       <c r="E115" t="n">
-        <v>676.974145580189</v>
+        <v>680.8222873692</v>
       </c>
       <c r="F115" t="n">
         <v>2020</v>
@@ -5150,13 +5150,13 @@
         <v>115</v>
       </c>
       <c r="C116" t="n">
-        <v>307.823692982983</v>
+        <v>306.960912944937</v>
       </c>
       <c r="D116" t="n">
-        <v>288.377868188776</v>
+        <v>286.045462918721</v>
       </c>
       <c r="E116" t="n">
-        <v>329.14163239494</v>
+        <v>329.192885945517</v>
       </c>
       <c r="F116" t="n">
         <v>2020</v>
@@ -5188,13 +5188,13 @@
         <v>116</v>
       </c>
       <c r="C117" t="n">
-        <v>98.4592107118925</v>
+        <v>98.4314581822475</v>
       </c>
       <c r="D117" t="n">
-        <v>88.2524330767722</v>
+        <v>89.1432331632071</v>
       </c>
       <c r="E117" t="n">
-        <v>109.0288428277</v>
+        <v>108.667195844308</v>
       </c>
       <c r="F117" t="n">
         <v>2020</v>
@@ -5226,13 +5226,13 @@
         <v>117</v>
       </c>
       <c r="C118" t="n">
-        <v>121.196313042465</v>
+        <v>121.230736621168</v>
       </c>
       <c r="D118" t="n">
-        <v>109.967984688466</v>
+        <v>110.471991832482</v>
       </c>
       <c r="E118" t="n">
-        <v>131.821018171763</v>
+        <v>133.271623875343</v>
       </c>
       <c r="F118" t="n">
         <v>2020</v>
@@ -5264,13 +5264,13 @@
         <v>118</v>
       </c>
       <c r="C119" t="n">
-        <v>438.853992633026</v>
+        <v>440.246519841322</v>
       </c>
       <c r="D119" t="n">
-        <v>414.368818923068</v>
+        <v>413.730143621921</v>
       </c>
       <c r="E119" t="n">
-        <v>463.494165677168</v>
+        <v>468.379019520033</v>
       </c>
       <c r="F119" t="n">
         <v>2020</v>
@@ -5302,13 +5302,13 @@
         <v>119</v>
       </c>
       <c r="C120" t="n">
-        <v>83.9124564674261</v>
+        <v>84.0845439020904</v>
       </c>
       <c r="D120" t="n">
-        <v>75.9284981503198</v>
+        <v>75.3674268386137</v>
       </c>
       <c r="E120" t="n">
-        <v>93.6347440305785</v>
+        <v>93.5414437767966</v>
       </c>
       <c r="F120" t="n">
         <v>2020</v>
@@ -5340,13 +5340,13 @@
         <v>120</v>
       </c>
       <c r="C121" t="n">
-        <v>257.138442878889</v>
+        <v>257.656781912271</v>
       </c>
       <c r="D121" t="n">
-        <v>238.996199839873</v>
+        <v>240.08581728158</v>
       </c>
       <c r="E121" t="n">
-        <v>276.069757419076</v>
+        <v>276.989655724672</v>
       </c>
       <c r="F121" t="n">
         <v>2020</v>
@@ -5378,13 +5378,13 @@
         <v>122</v>
       </c>
       <c r="C122" t="n">
-        <v>580.342575885798</v>
+        <v>579.805065141324</v>
       </c>
       <c r="D122" t="n">
-        <v>552.25051128248</v>
+        <v>548.556723427237</v>
       </c>
       <c r="E122" t="n">
-        <v>611.63381821904</v>
+        <v>616.450542923981</v>
       </c>
       <c r="F122" t="n">
         <v>2020</v>
@@ -5416,13 +5416,13 @@
         <v>123</v>
       </c>
       <c r="C123" t="n">
-        <v>1318.29476581653</v>
+        <v>1316.06212955692</v>
       </c>
       <c r="D123" t="n">
-        <v>1263.68362895638</v>
+        <v>1256.17232240624</v>
       </c>
       <c r="E123" t="n">
-        <v>1367.10627522405</v>
+        <v>1378.5513573946</v>
       </c>
       <c r="F123" t="n">
         <v>2020</v>
@@ -5454,13 +5454,13 @@
         <v>124</v>
       </c>
       <c r="C124" t="n">
-        <v>1280.47545013141</v>
+        <v>1282.60852804663</v>
       </c>
       <c r="D124" t="n">
-        <v>1226.2440763441</v>
+        <v>1226.9908991325</v>
       </c>
       <c r="E124" t="n">
-        <v>1333.37197157378</v>
+        <v>1345.82074578967</v>
       </c>
       <c r="F124" t="n">
         <v>2020</v>
@@ -5492,13 +5492,13 @@
         <v>125</v>
       </c>
       <c r="C125" t="n">
-        <v>3302.0271103605</v>
+        <v>3293.19343760716</v>
       </c>
       <c r="D125" t="n">
-        <v>3194.12105842927</v>
+        <v>3162.14471957772</v>
       </c>
       <c r="E125" t="n">
-        <v>3407.89737832391</v>
+        <v>3436.09251336237</v>
       </c>
       <c r="F125" t="n">
         <v>2020</v>
@@ -5530,13 +5530,13 @@
         <v>126</v>
       </c>
       <c r="C126" t="n">
-        <v>651.412109185752</v>
+        <v>650.053664490859</v>
       </c>
       <c r="D126" t="n">
-        <v>620.431464195439</v>
+        <v>615.363110204712</v>
       </c>
       <c r="E126" t="n">
-        <v>687.824679800755</v>
+        <v>685.121631707751</v>
       </c>
       <c r="F126" t="n">
         <v>2020</v>
@@ -5568,13 +5568,13 @@
         <v>127</v>
       </c>
       <c r="C127" t="n">
-        <v>433.960616491059</v>
+        <v>435.136804868457</v>
       </c>
       <c r="D127" t="n">
-        <v>410.10572791089</v>
+        <v>406.724963182361</v>
       </c>
       <c r="E127" t="n">
-        <v>461.481531896129</v>
+        <v>464.143744730442</v>
       </c>
       <c r="F127" t="n">
         <v>2020</v>
@@ -5606,13 +5606,13 @@
         <v>128</v>
       </c>
       <c r="C128" t="n">
-        <v>513.727915181829</v>
+        <v>513.567873788051</v>
       </c>
       <c r="D128" t="n">
-        <v>484.624717060752</v>
+        <v>485.604828225432</v>
       </c>
       <c r="E128" t="n">
-        <v>542.523082480149</v>
+        <v>544.211827425496</v>
       </c>
       <c r="F128" t="n">
         <v>2020</v>
@@ -5644,13 +5644,13 @@
         <v>129</v>
       </c>
       <c r="C129" t="n">
-        <v>223.391866286635</v>
+        <v>224.432277272219</v>
       </c>
       <c r="D129" t="n">
-        <v>207.622533911857</v>
+        <v>207.702248704724</v>
       </c>
       <c r="E129" t="n">
-        <v>241.174442647372</v>
+        <v>241.43033772607</v>
       </c>
       <c r="F129" t="n">
         <v>2020</v>
@@ -5682,13 +5682,13 @@
         <v>130</v>
       </c>
       <c r="C130" t="n">
-        <v>239.347455077295</v>
+        <v>240.345229585735</v>
       </c>
       <c r="D130" t="n">
-        <v>221.422904631348</v>
+        <v>220.922686563136</v>
       </c>
       <c r="E130" t="n">
-        <v>256.995156164054</v>
+        <v>260.458624979338</v>
       </c>
       <c r="F130" t="n">
         <v>2020</v>
